--- a/federacion_patronal.xlsx
+++ b/federacion_patronal.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,14 +445,14 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="14" customWidth="1" min="1" max="1"/>
-    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="1" max="1"/>
+    <col width="25" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="10" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="60" customWidth="1" min="7" max="7"/>
-    <col width="16" customWidth="1" min="8" max="8"/>
+    <col width="15" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -500,160 +500,42 @@
     <row r="2" ht="15" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
         <is>
+          <t>Chevrolet</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Onix 1.4 Joy Black L/19</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>36100,36</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>19,91</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>139,660.49</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>DOMICILIO WHITE N* 226</t>
+          <t>030 CGRC-RESP.CIVIL LIMITE MAXIMO SUMA ASEGURADA</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>polizaFed4.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>139,660.49</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr"/>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>DOMICILIO WHITE N* 226</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>polizaFed4.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>- modelo - a</t>
-        </is>
-      </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>- a</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>139,66</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>de pago consolidado</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>polizaFed4.pdf</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="3" t="inlineStr">
-        <is>
-          <t>- modelo - a</t>
-        </is>
-      </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>- a</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>139,66</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>--</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>de pago consolidado</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>polizaFed4.pdf</t>
+          <t>polizaFed.pdf</t>
         </is>
       </c>
     </row>

--- a/federacion_patronal.xlsx
+++ b/federacion_patronal.xlsx
@@ -437,7 +437,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,13 +446,13 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="11" customWidth="1" min="1" max="1"/>
-    <col width="25" customWidth="1" min="2" max="2"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="16" customWidth="1" min="4" max="4"/>
-    <col width="10" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
     <col width="20" customWidth="1" min="6" max="6"/>
     <col width="60" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -515,27 +515,153 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>18,315,000.00</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>115,755.08</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>--</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>36100,36</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>030 CGRC-RESP.CIVIL LIMITE MAXIMO SUMA ASEGURADA</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>polizaFed.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Hilux L/16 2.4 Dc 4X2 Tdi Sr</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>31,900,000.00</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>284,286.34</t>
+        </is>
+      </c>
+      <c r="F3" s="3" t="inlineStr">
         <is>
           <t>--</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
         <is>
           <t>030 CGRC-RESP.CIVIL LIMITE MAXIMO SUMA ASEGURADA</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>polizaFed.pdf</t>
+      <c r="H3" s="3" t="inlineStr">
+        <is>
+          <t>polizaFed2.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>8,990,300.00</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>92,327.38</t>
+        </is>
+      </c>
+      <c r="F4" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>030 CGRC-RESP.CIVIL LIMITE MAXIMO SUMA ASEGURADA $ 160,000,000.00 060 CGRH-ROBO Y/O HURTO TOTAL SUMA ASEGURADA $ 8,990,300.00 070 CGIN-INCENDIO TOTAL SUMA ASEGURADA $ 8,990,300.00 080 CGDA-DESTRUCCION TOTAL SUMA ASEGURADA $ 8,990,300.00</t>
+        </is>
+      </c>
+      <c r="H4" s="3" t="inlineStr">
+        <is>
+          <t>polizaFed3.pdf</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Toyota</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Corolla 1.8 Xei Cvt L/14</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D5" s="3" t="inlineStr">
+        <is>
+          <t>19,910,000.00</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>139,660.49</t>
+        </is>
+      </c>
+      <c r="F5" s="3" t="inlineStr">
+        <is>
+          <t>--</t>
+        </is>
+      </c>
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>030 CGRC-RESP.CIVIL LIMITE MAXIMO SUMA ASEGURADA</t>
+        </is>
+      </c>
+      <c r="H5" s="3" t="inlineStr">
+        <is>
+          <t>polizaFed4.pdf</t>
         </is>
       </c>
     </row>

--- a/federacion_patronal.xlsx
+++ b/federacion_patronal.xlsx
@@ -584,12 +584,12 @@
     <row r="4" ht="15" customHeight="1">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Bajaj</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>--</t>
+          <t>Dominar 400 Touring</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr">
